--- a/Our data sets/China.xlsx
+++ b/Our data sets/China.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Savorok\Desktop\Covid 19 Stuff\COVID-19-By-Country\Our data sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05FD8B-CEF5-45E1-939B-4E055248DE6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A066A8-2DC7-4A75-BEE1-3CD4735B8ACB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{47563F4E-6AE2-44F4-9BB0-99C449A29414}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>DaysSinceLastReportedCase</t>
+  </si>
+  <si>
+    <t>Local transmission</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
   <dimension ref="A1:O330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -463,10 +469,18 @@
       <c r="B2" s="1">
         <v>278</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="1">
+        <v>278</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
@@ -490,9 +504,15 @@
         <f>SUM(B3-B2)</f>
         <v>31</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
@@ -516,9 +536,15 @@
         <f>SUM(B4-B3)</f>
         <v>262</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
@@ -542,9 +568,15 @@
         <f>SUM(B5-B4)</f>
         <v>259</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
@@ -568,9 +600,15 @@
         <f>SUM(B6-B5)</f>
         <v>467</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
@@ -594,9 +632,15 @@
         <f>SUM(B7-B6)</f>
         <v>688</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
@@ -617,12 +661,18 @@
         <v>2761</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C22" si="0">SUM(B8-B7)</f>
+        <f t="shared" ref="C8:C16" si="0">SUM(B8-B7)</f>
         <v>776</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
@@ -646,9 +696,15 @@
         <f t="shared" si="0"/>
         <v>1776</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
@@ -672,9 +728,15 @@
         <f t="shared" si="0"/>
         <v>1460</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
@@ -698,9 +760,15 @@
         <f t="shared" si="0"/>
         <v>1739</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
@@ -724,9 +792,15 @@
         <f t="shared" si="0"/>
         <v>1984</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
@@ -750,9 +824,15 @@
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
@@ -779,8 +859,12 @@
       <c r="D14" s="1">
         <v>304</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
@@ -811,7 +895,9 @@
         <f>SUM(D15-D14)</f>
         <v>57</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
@@ -842,7 +928,9 @@
         <f t="shared" ref="E16:E67" si="1">SUM(D16-D15)</f>
         <v>64</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
@@ -873,7 +961,9 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
@@ -894,7 +984,7 @@
         <v>28060</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ref="C18:C35" si="2">SUM(B18-B17)</f>
+        <f t="shared" ref="C18:C34" si="2">SUM(B18-B17)</f>
         <v>3697</v>
       </c>
       <c r="D18" s="1">
@@ -904,7 +994,9 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
@@ -935,7 +1027,9 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
@@ -966,7 +1060,9 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
@@ -997,7 +1093,9 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
@@ -1028,7 +1126,9 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
@@ -1059,7 +1159,9 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
@@ -1090,7 +1192,9 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
@@ -1121,7 +1225,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
@@ -1152,7 +1258,9 @@
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
@@ -1183,7 +1291,9 @@
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
@@ -1214,7 +1324,9 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
@@ -1245,7 +1357,9 @@
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
@@ -1276,7 +1390,9 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
@@ -1307,7 +1423,9 @@
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
@@ -1338,7 +1456,9 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
@@ -1369,7 +1489,9 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
@@ -1400,7 +1522,9 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
@@ -1431,7 +1555,9 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
@@ -1462,7 +1588,9 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
@@ -1493,7 +1621,9 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
@@ -1524,7 +1654,9 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
@@ -1555,7 +1687,9 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
@@ -1586,7 +1720,9 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G40" s="1">
         <v>0</v>
       </c>
@@ -1617,7 +1753,9 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
@@ -1648,7 +1786,9 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G42" s="1">
         <v>0</v>
       </c>
@@ -1679,7 +1819,9 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G43" s="1">
         <v>0</v>
       </c>
@@ -1710,7 +1852,9 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
@@ -1741,7 +1885,9 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G45" s="1">
         <v>0</v>
       </c>
@@ -1772,7 +1918,9 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
@@ -1803,7 +1951,9 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
@@ -1834,7 +1984,9 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
@@ -1865,7 +2017,9 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
@@ -1896,7 +2050,9 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G50" s="1">
         <v>0</v>
       </c>
@@ -1927,7 +2083,9 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
@@ -1958,7 +2116,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G52" s="1">
         <v>0</v>
       </c>
@@ -1989,7 +2149,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G53" s="1">
         <v>0</v>
       </c>
@@ -2020,7 +2182,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G54" s="1">
         <v>0</v>
       </c>
@@ -2051,7 +2215,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G55" s="1">
         <v>0</v>
       </c>
@@ -2082,7 +2248,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G56" s="1">
         <v>0</v>
       </c>
@@ -2113,7 +2281,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G57" s="1">
         <v>0</v>
       </c>
@@ -2144,7 +2314,9 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G58" s="1">
         <v>0</v>
       </c>
@@ -2175,7 +2347,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G59" s="1">
         <v>0</v>
       </c>
@@ -2206,7 +2380,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G60" s="1">
         <v>0</v>
       </c>
@@ -2237,7 +2413,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G61" s="1">
         <v>0</v>
       </c>
@@ -2268,7 +2446,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G62" s="1">
         <v>0</v>
       </c>
@@ -2299,7 +2479,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
@@ -2330,7 +2512,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G64" s="1">
         <v>0</v>
       </c>
@@ -2361,7 +2545,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G65" s="1">
         <v>0</v>
       </c>
@@ -2392,7 +2578,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G66" s="1">
         <v>0</v>
       </c>
@@ -2423,7 +2611,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G67" s="1">
         <v>0</v>
       </c>
